--- a/output/damage/PHL_osm_fl_rcp8p5_damage_1.xlsx
+++ b/output/damage/PHL_osm_fl_rcp8p5_damage_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>F1_1_1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5590759.911458508</v>
+        <v>240334.8018167526</v>
       </c>
       <c r="F2" t="n">
-        <v>4193069.933593881</v>
+        <v>180251.1013625644</v>
       </c>
       <c r="G2" t="n">
-        <v>6988449.889323135</v>
+        <v>300418.5022709407</v>
       </c>
     </row>
     <row r="3">
@@ -505,22 +505,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>substation</t>
+          <t>F1_1_2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>substation</t>
+          <t>plant</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>265802.1384990234</v>
+        <v>1208580.181549761</v>
       </c>
       <c r="F3" t="n">
-        <v>199351.6038742675</v>
+        <v>906435.1361623211</v>
       </c>
       <c r="G3" t="n">
-        <v>332252.6731237792</v>
+        <v>1510725.226937202</v>
       </c>
     </row>
     <row r="4">
@@ -529,12 +529,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>rp0002</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>F1_1_3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6154870.573679112</v>
+        <v>1208580.181549761</v>
       </c>
       <c r="F4" t="n">
-        <v>4616152.930259334</v>
+        <v>906435.1361623211</v>
       </c>
       <c r="G4" t="n">
-        <v>7693588.21709889</v>
+        <v>1510725.226937202</v>
       </c>
     </row>
     <row r="5">
@@ -558,12 +558,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>rp0002</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>substation</t>
+          <t>F2_1_1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>265802.1384990234</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>199351.6038742675</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>332252.6731237792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -587,27 +587,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rp0005</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>F2_1_2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>substation</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7493381.574649825</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5620036.180987368</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>9366726.968312282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -616,12 +616,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>rp0005</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>substation</t>
+          <t>F2_1_3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>265802.1384990234</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>199351.6038742675</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>332252.6731237792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -645,12 +645,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>rp0010</t>
+          <t>rp0002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>F1_1_1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8500834.724361986</v>
+        <v>271191.655040222</v>
       </c>
       <c r="F8" t="n">
-        <v>6375626.043271489</v>
+        <v>203393.7412801665</v>
       </c>
       <c r="G8" t="n">
-        <v>10626043.40545248</v>
+        <v>338989.5688002775</v>
       </c>
     </row>
     <row r="9">
@@ -674,27 +674,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>rp0010</t>
+          <t>rp0002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>substation</t>
+          <t>F1_1_2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>substation</t>
+          <t>plant</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>265802.1384990234</v>
+        <v>1363751.138851691</v>
       </c>
       <c r="F9" t="n">
-        <v>199351.6038742675</v>
+        <v>1022813.354138769</v>
       </c>
       <c r="G9" t="n">
-        <v>332252.6731237792</v>
+        <v>1704688.923564614</v>
       </c>
     </row>
     <row r="10">
@@ -703,12 +703,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>rp0025</t>
+          <t>rp0002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>F1_1_3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>9922258.341433372</v>
+        <v>1363751.138851691</v>
       </c>
       <c r="F10" t="n">
-        <v>7441693.756075027</v>
+        <v>1022813.354138769</v>
       </c>
       <c r="G10" t="n">
-        <v>12402822.92679171</v>
+        <v>1704688.923564614</v>
       </c>
     </row>
     <row r="11">
@@ -732,12 +732,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>rp0025</t>
+          <t>rp0002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>substation</t>
+          <t>F2_1_1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>265802.1384990234</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>199351.6038742675</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>332252.6731237792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -761,27 +761,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>rp0050</t>
+          <t>rp0002</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>F2_1_2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>substation</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>12427357.89763278</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>9320518.423224583</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>15534197.37204098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -790,12 +790,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>rp0050</t>
+          <t>rp0002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>substation</t>
+          <t>F2_1_3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>379367.4297774064</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>284525.5723330548</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>474209.287221758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -819,12 +819,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>rp0100</t>
+          <t>rp0005</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>F1_1_1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15646822.57384006</v>
+        <v>344408.2067933254</v>
       </c>
       <c r="F14" t="n">
-        <v>11735116.93038005</v>
+        <v>258306.155094994</v>
       </c>
       <c r="G14" t="n">
-        <v>19558528.21730008</v>
+        <v>430510.2584916567</v>
       </c>
     </row>
     <row r="15">
@@ -848,27 +848,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>rp0100</t>
+          <t>rp0005</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>substation</t>
+          <t>F1_1_2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>substation</t>
+          <t>plant</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1914229.336258475</v>
+        <v>1731937.821518159</v>
       </c>
       <c r="F15" t="n">
-        <v>1435672.002193856</v>
+        <v>1298953.366138619</v>
       </c>
       <c r="G15" t="n">
-        <v>2392786.670323094</v>
+        <v>2164922.276897699</v>
       </c>
     </row>
     <row r="16">
@@ -877,12 +877,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>rp0250</t>
+          <t>rp0005</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>F1_1_3</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>20261212.96923165</v>
+        <v>1731937.821518159</v>
       </c>
       <c r="F16" t="n">
-        <v>15195909.72692374</v>
+        <v>1298953.366138619</v>
       </c>
       <c r="G16" t="n">
-        <v>25326516.21153957</v>
+        <v>2164922.276897699</v>
       </c>
     </row>
     <row r="17">
@@ -906,12 +906,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>rp0250</t>
+          <t>rp0005</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>substation</t>
+          <t>F2_1_1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4016541.133258493</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>3012405.84994387</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5020676.416573116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -935,27 +935,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>rp0500</t>
+          <t>rp0005</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>F2_1_2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>substation</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24966769.09682868</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>18725076.82262151</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>31208461.37103585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -964,12 +964,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>rp0500</t>
+          <t>rp0005</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>substation</t>
+          <t>F2_1_3</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5190270.782364391</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3892703.086773293</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6487838.477955489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -993,12 +993,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>rp1000</t>
+          <t>rp0010</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>F1_1_1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1007,13 +1007,13 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>30452152.26980768</v>
+        <v>399515.8940825846</v>
       </c>
       <c r="F20" t="n">
-        <v>22839114.20235576</v>
+        <v>299636.9205619383</v>
       </c>
       <c r="G20" t="n">
-        <v>38065190.3372596</v>
+        <v>499394.8676032307</v>
       </c>
     </row>
     <row r="21">
@@ -1022,27 +1022,1187 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>F1_1_2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2009059.812196905</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1506794.859147679</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2511324.765246131</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>F1_1_3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2009059.812196905</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1506794.859147679</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2511324.765246131</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>F2_1_1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>substation</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>F2_1_2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>substation</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>F2_1_3</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>substation</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>F1_1_1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>499125.5815569743</v>
+      </c>
+      <c r="F26" t="n">
+        <v>374344.1861677306</v>
+      </c>
+      <c r="G26" t="n">
+        <v>623906.9769462177</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>F1_1_2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2509970.596910072</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1882477.947682554</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3137463.24613759</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>F1_1_3</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2509970.596910072</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1882477.947682554</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3137463.24613759</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>F2_1_1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>substation</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>F2_1_2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>substation</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>F2_1_3</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>substation</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>F1_1_1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>644504.234004229</v>
+      </c>
+      <c r="F32" t="n">
+        <v>483378.1755031716</v>
+      </c>
+      <c r="G32" t="n">
+        <v>805630.2925052863</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>F1_1_2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>3241041.406630461</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2430781.054972846</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4051301.758288077</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>F1_1_3</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>3241041.406630461</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2430781.054972846</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4051301.758288077</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>F2_1_1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>substation</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>3066.689351566817</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2300.017013675112</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3833.36168945852</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>F2_1_2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>substation</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>6133.378703133633</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4600.034027350224</v>
+      </c>
+      <c r="G36" t="n">
+        <v>7666.72337891704</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>F2_1_3</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>substation</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>15333.44675783408</v>
+      </c>
+      <c r="F37" t="n">
+        <v>11500.08506837556</v>
+      </c>
+      <c r="G37" t="n">
+        <v>19166.8084472926</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>F1_1_1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>826305.2189830187</v>
+      </c>
+      <c r="F38" t="n">
+        <v>619728.9142372638</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1032881.523728773</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>F1_1_2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>4155270.497759433</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3116452.873319575</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5194088.122199291</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>F1_1_3</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>4155270.497759433</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3116452.873319575</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5194088.122199291</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>F2_1_1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>substation</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>23818.04441542148</v>
+      </c>
+      <c r="F41" t="n">
+        <v>17863.53331156611</v>
+      </c>
+      <c r="G41" t="n">
+        <v>29772.55551927685</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>F2_1_2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>substation</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>47636.08883084296</v>
+      </c>
+      <c r="F42" t="n">
+        <v>35727.06662313222</v>
+      </c>
+      <c r="G42" t="n">
+        <v>59545.1110385537</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>F2_1_3</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>substation</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>119090.2220771074</v>
+      </c>
+      <c r="F43" t="n">
+        <v>89317.66655783054</v>
+      </c>
+      <c r="G43" t="n">
+        <v>148862.7775963842</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>F1_1_1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1080696.177316276</v>
+      </c>
+      <c r="F44" t="n">
+        <v>810522.1329872065</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1350870.221645345</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>F1_1_2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>5434535.374435293</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4075901.53082647</v>
+      </c>
+      <c r="G45" t="n">
+        <v>6793169.218044117</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>F1_1_3</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>5434535.374435293</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4075901.53082647</v>
+      </c>
+      <c r="G46" t="n">
+        <v>6793169.218044117</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>F2_1_1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>substation</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>49976.32900941002</v>
+      </c>
+      <c r="F47" t="n">
+        <v>37482.24675705751</v>
+      </c>
+      <c r="G47" t="n">
+        <v>62470.41126176252</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>F2_1_2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>substation</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>99952.65801882005</v>
+      </c>
+      <c r="F48" t="n">
+        <v>74964.49351411502</v>
+      </c>
+      <c r="G48" t="n">
+        <v>124940.822523525</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>F2_1_3</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>substation</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>249881.6450470501</v>
+      </c>
+      <c r="F49" t="n">
+        <v>187411.2337852875</v>
+      </c>
+      <c r="G49" t="n">
+        <v>312352.0563088126</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>F1_1_1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1365682.269596887</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1024261.702197665</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1707102.836996109</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>F1_1_2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>6867655.091363655</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5150741.318522743</v>
+      </c>
+      <c r="G51" t="n">
+        <v>8584568.864204571</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>F1_1_3</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>6867655.091363655</v>
+      </c>
+      <c r="F52" t="n">
+        <v>5150741.318522743</v>
+      </c>
+      <c r="G52" t="n">
+        <v>8584568.864204571</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>F2_1_1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>substation</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>64580.61094395797</v>
+      </c>
+      <c r="F53" t="n">
+        <v>48435.45820796848</v>
+      </c>
+      <c r="G53" t="n">
+        <v>80725.76367994747</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>F2_1_2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>substation</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>129161.2218879159</v>
+      </c>
+      <c r="F54" t="n">
+        <v>96870.91641593695</v>
+      </c>
+      <c r="G54" t="n">
+        <v>161451.5273598949</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>F2_1_3</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>substation</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>322903.0547197899</v>
+      </c>
+      <c r="F55" t="n">
+        <v>242177.2910398423</v>
+      </c>
+      <c r="G55" t="n">
+        <v>403628.8183997372</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>rp1000</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>substation</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>substation</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>6356562.871021384</v>
-      </c>
-      <c r="F21" t="n">
-        <v>4767422.153266038</v>
-      </c>
-      <c r="G21" t="n">
-        <v>7945703.58877673</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>F1_1_1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1665732.729158898</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1249299.546869173</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2082165.911448623</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>F1_1_2</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>8376529.528816298</v>
+      </c>
+      <c r="F57" t="n">
+        <v>6282397.146612223</v>
+      </c>
+      <c r="G57" t="n">
+        <v>10470661.91102037</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>F1_1_3</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>8376529.528816298</v>
+      </c>
+      <c r="F58" t="n">
+        <v>6282397.146612223</v>
+      </c>
+      <c r="G58" t="n">
+        <v>10470661.91102037</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>F2_1_1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>substation</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>79092.35007720257</v>
+      </c>
+      <c r="F59" t="n">
+        <v>59319.26255790192</v>
+      </c>
+      <c r="G59" t="n">
+        <v>98865.43759650321</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>F2_1_2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>substation</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>158184.7001544051</v>
+      </c>
+      <c r="F60" t="n">
+        <v>118638.5251158038</v>
+      </c>
+      <c r="G60" t="n">
+        <v>197730.8751930064</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>F2_1_3</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>substation</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>395461.7503860128</v>
+      </c>
+      <c r="F61" t="n">
+        <v>296596.3127895095</v>
+      </c>
+      <c r="G61" t="n">
+        <v>494327.187982516</v>
       </c>
     </row>
   </sheetData>
